--- a/uploads/gfgcontribute.xlsx
+++ b/uploads/gfgcontribute.xlsx
@@ -12,60 +12,270 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>hsgdho</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>rvjhsdb</t>
-  </si>
-  <si>
-    <t>rghf</t>
-  </si>
-  <si>
-    <t>hbfln</t>
-  </si>
-  <si>
-    <t>hsdb</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
-    <t>nxsl</t>
-  </si>
-  <si>
-    <t>hgdh</t>
-  </si>
-  <si>
-    <t>db</t>
-  </si>
-  <si>
-    <t>fhi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>hildegard.org</t>
+  </si>
+  <si>
+    <t>{zipcode=92998-3874, geo={lng=81.1496, lat=-37.3159}, suite=Apt. 556, city=Gwenborough, street=Kulas Light}</t>
+  </si>
+  <si>
+    <t>1-770-736-8031 x56442</t>
+  </si>
+  <si>
+    <t>Leanne Graham</t>
+  </si>
+  <si>
+    <t>{bs=harness real-time e-markets, catchPhrase=Multi-layered client-server neural-net, name=Romaguera-Crona}</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Sincere@april.biz</t>
+  </si>
+  <si>
+    <t>Bret</t>
+  </si>
+  <si>
+    <t>anastasia.net</t>
+  </si>
+  <si>
+    <t>{zipcode=90566-7771, geo={lng=-34.4618, lat=-43.9509}, suite=Suite 879, city=Wisokyburgh, street=Victor Plains}</t>
+  </si>
+  <si>
+    <t>010-692-6593 x09125</t>
+  </si>
+  <si>
+    <t>Ervin Howell</t>
+  </si>
+  <si>
+    <t>{bs=synergize scalable supply-chains, catchPhrase=Proactive didactic contingency, name=Deckow-Crist}</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Shanna@melissa.tv</t>
+  </si>
+  <si>
+    <t>Antonette</t>
+  </si>
+  <si>
+    <t>ramiro.info</t>
+  </si>
+  <si>
+    <t>{zipcode=59590-4157, geo={lng=-47.0653, lat=-68.6102}, suite=Suite 847, city=McKenziehaven, street=Douglas Extension}</t>
+  </si>
+  <si>
+    <t>1-463-123-4447</t>
+  </si>
+  <si>
+    <t>Clementine Bauch</t>
+  </si>
+  <si>
+    <t>{bs=e-enable strategic applications, catchPhrase=Face to face bifurcated interface, name=Romaguera-Jacobson}</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Nathan@yesenia.net</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>kale.biz</t>
+  </si>
+  <si>
+    <t>{zipcode=53919-4257, geo={lng=-164.2990, lat=29.4572}, suite=Apt. 692, city=South Elvis, street=Hoeger Mall}</t>
+  </si>
+  <si>
+    <t>493-170-9623 x156</t>
+  </si>
+  <si>
+    <t>Patricia Lebsack</t>
+  </si>
+  <si>
+    <t>{bs=transition cutting-edge web services, catchPhrase=Multi-tiered zero tolerance productivity, name=Robel-Corkery}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Julianne.OConner@kory.org</t>
+  </si>
+  <si>
+    <t>Karianne</t>
+  </si>
+  <si>
+    <t>demarco.info</t>
+  </si>
+  <si>
+    <t>{zipcode=33263, geo={lng=62.5342, lat=-31.8129}, suite=Suite 351, city=Roscoeview, street=Skiles Walks}</t>
+  </si>
+  <si>
+    <t>(254)954-1289</t>
+  </si>
+  <si>
+    <t>Chelsey Dietrich</t>
+  </si>
+  <si>
+    <t>{bs=revolutionize end-to-end systems, catchPhrase=User-centric fault-tolerant solution, name=Keebler LLC}</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Lucio_Hettinger@annie.ca</t>
+  </si>
+  <si>
+    <t>Kamren</t>
+  </si>
+  <si>
+    <t>ola.org</t>
+  </si>
+  <si>
+    <t>{zipcode=23505-1337, geo={lng=71.7478, lat=-71.4197}, suite=Apt. 950, city=South Christy, street=Norberto Crossing}</t>
+  </si>
+  <si>
+    <t>1-477-935-8478 x6430</t>
+  </si>
+  <si>
+    <t>Mrs. Dennis Schulist</t>
+  </si>
+  <si>
+    <t>{bs=e-enable innovative applications, catchPhrase=Synchronised bottom-line interface, name=Considine-Lockman}</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Karley_Dach@jasper.info</t>
+  </si>
+  <si>
+    <t>Leopoldo_Corkery</t>
+  </si>
+  <si>
+    <t>elvis.io</t>
+  </si>
+  <si>
+    <t>{zipcode=58804-1099, geo={lng=21.8984, lat=24.8918}, suite=Suite 280, city=Howemouth, street=Rex Trail}</t>
+  </si>
+  <si>
+    <t>210.067.6132</t>
+  </si>
+  <si>
+    <t>Kurtis Weissnat</t>
+  </si>
+  <si>
+    <t>{bs=generate enterprise e-tailers, catchPhrase=Configurable multimedia task-force, name=Johns Group}</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Telly.Hoeger@billy.biz</t>
+  </si>
+  <si>
+    <t>Elwyn.Skiles</t>
+  </si>
+  <si>
+    <t>jacynthe.com</t>
+  </si>
+  <si>
+    <t>{zipcode=45169, geo={lng=-120.7677, lat=-14.3990}, suite=Suite 729, city=Aliyaview, street=Ellsworth Summit}</t>
+  </si>
+  <si>
+    <t>586.493.6943 x140</t>
+  </si>
+  <si>
+    <t>Nicholas Runolfsdottir V</t>
+  </si>
+  <si>
+    <t>{bs=e-enable extensible e-tailers, catchPhrase=Implemented secondary concept, name=Abernathy Group}</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Sherwood@rosamond.me</t>
+  </si>
+  <si>
+    <t>Maxime_Nienow</t>
+  </si>
+  <si>
+    <t>conrad.com</t>
+  </si>
+  <si>
+    <t>{zipcode=76495-3109, geo={lng=-168.8889, lat=24.6463}, suite=Suite 449, city=Bartholomebury, street=Dayna Park}</t>
+  </si>
+  <si>
+    <t>(775)976-6794 x41206</t>
+  </si>
+  <si>
+    <t>Glenna Reichert</t>
+  </si>
+  <si>
+    <t>{bs=aggregate real-time technologies, catchPhrase=Switchable contextually-based project, name=Yost and Sons}</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Chaim_McDermott@dana.io</t>
+  </si>
+  <si>
+    <t>Delphine</t>
+  </si>
+  <si>
+    <t>ambrose.net</t>
+  </si>
+  <si>
+    <t>{zipcode=31428-2261, geo={lng=57.2232, lat=-38.2386}, suite=Suite 198, city=Lebsackbury, street=Kattie Turnpike}</t>
+  </si>
+  <si>
+    <t>024-648-3804</t>
+  </si>
+  <si>
+    <t>Clementina DuBuque</t>
+  </si>
+  <si>
+    <t>{bs=target end-to-end models, catchPhrase=Centralized empowering task-force, name=Hoeger LLC}</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Rey.Padberg@karina.biz</t>
+  </si>
+  <si>
+    <t>Moriah.Stanton</t>
   </si>
 </sst>
 </file>
@@ -138,97 +348,268 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
